--- a/ODE/Figures/Supplemental_Table_3.xlsx
+++ b/ODE/Figures/Supplemental_Table_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="299">
   <si>
     <t>Main_Scenario</t>
   </si>
@@ -457,6 +457,456 @@
   </si>
   <si>
     <t>4.09(4.03–4.16)</t>
+  </si>
+  <si>
+    <t>Time_Dose_SA</t>
+  </si>
+  <si>
+    <t>Main_Scenario</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Peak burden of hospitalization</t>
+  </si>
+  <si>
+    <t>Reduced vaccination rate</t>
+  </si>
+  <si>
+    <t>Reduced vaccination uptake</t>
+  </si>
+  <si>
+    <t>Reduced uptake of second dose</t>
+  </si>
+  <si>
+    <t>Reduced transmission rate</t>
+  </si>
+  <si>
+    <t>Increased transmission rate</t>
+  </si>
+  <si>
+    <t>Duration of delay (41%% a delay second dose)</t>
+  </si>
+  <si>
+    <t>Duration of delay (64%% a delay second dose)</t>
+  </si>
+  <si>
+    <t>Reduced probability of hospitalization</t>
+  </si>
+  <si>
+    <t>Reduced efficacy against infection</t>
+  </si>
+  <si>
+    <t>Increased efficacy against severe disease and infection</t>
+  </si>
+  <si>
+    <t>Waning vaccine immunity</t>
+  </si>
+  <si>
+    <t>Sub_Scenario</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Single Winter</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>5%%</t>
+  </si>
+  <si>
+    <t>10%%</t>
+  </si>
+  <si>
+    <t>5%%</t>
+  </si>
+  <si>
+    <t>10%%</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>18-59</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>11.24(11.05–11.42)</t>
+  </si>
+  <si>
+    <t>8.94(8.24–9.65)</t>
+  </si>
+  <si>
+    <t>6.05(5.93–6.17)</t>
+  </si>
+  <si>
+    <t>8.93(8.80–9.07)</t>
+  </si>
+  <si>
+    <t>4.42(4.35–4.49)</t>
+  </si>
+  <si>
+    <t>8.03(7.92–8.15)</t>
+  </si>
+  <si>
+    <t>3.70(3.64–3.75)</t>
+  </si>
+  <si>
+    <t>5.73(5.63–5.83)</t>
+  </si>
+  <si>
+    <t>3.20(3.14–3.25)</t>
+  </si>
+  <si>
+    <t>9.78(9.59–9.95)</t>
+  </si>
+  <si>
+    <t>7.77(7.60–7.95)</t>
+  </si>
+  <si>
+    <t>11.82(11.65–11.99)</t>
+  </si>
+  <si>
+    <t>11.56(11.38–11.74)</t>
+  </si>
+  <si>
+    <t>10.57(10.40–10.74)</t>
+  </si>
+  <si>
+    <t>10.58(10.42–10.75)</t>
+  </si>
+  <si>
+    <t>10.17(10.01–10.34)</t>
+  </si>
+  <si>
+    <t>9.89(9.73–10.05)</t>
+  </si>
+  <si>
+    <t>11.24(11.06–11.41)</t>
+  </si>
+  <si>
+    <t>11.23(11.06–11.41)</t>
+  </si>
+  <si>
+    <t>8.42(8.28–8.56)</t>
+  </si>
+  <si>
+    <t>5.64(5.53–5.75)</t>
+  </si>
+  <si>
+    <t>12.47(12.27–12.66)</t>
+  </si>
+  <si>
+    <t>13.08(12.86–13.29)</t>
+  </si>
+  <si>
+    <t>11.22(11.05–11.40)</t>
+  </si>
+  <si>
+    <t>13.51(13.30–13.73)</t>
+  </si>
+  <si>
+    <t>8.37(8.24–8.51)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>1.24(1.22–1.26)</t>
+  </si>
+  <si>
+    <t>0.98(0.87–1.09)</t>
+  </si>
+  <si>
+    <t>0.99(0.96–1.01)</t>
+  </si>
+  <si>
+    <t>0.96(0.95–0.98)</t>
+  </si>
+  <si>
+    <t>0.51(0.51–0.52)</t>
+  </si>
+  <si>
+    <t>0.91(0.90–0.92)</t>
+  </si>
+  <si>
+    <t>0.46(0.45–0.46)</t>
+  </si>
+  <si>
+    <t>0.66(0.65–0.67)</t>
+  </si>
+  <si>
+    <t>0.40(0.40–0.41)</t>
+  </si>
+  <si>
+    <t>1.07(1.05–1.09)</t>
+  </si>
+  <si>
+    <t>0.85(0.83–0.87)</t>
+  </si>
+  <si>
+    <t>1.33(1.31–1.35)</t>
+  </si>
+  <si>
+    <t>1.33(1.31–1.34)</t>
+  </si>
+  <si>
+    <t>1.18(1.16–1.20)</t>
+  </si>
+  <si>
+    <t>1.11(1.10–1.13)</t>
+  </si>
+  <si>
+    <t>1.14(1.12–1.16)</t>
+  </si>
+  <si>
+    <t>1.05(1.03–1.07)</t>
+  </si>
+  <si>
+    <t>0.83(0.82–0.84)</t>
+  </si>
+  <si>
+    <t>0.42(0.41–0.43)</t>
+  </si>
+  <si>
+    <t>1.08(1.06–1.09)</t>
+  </si>
+  <si>
+    <t>0.88(0.86–0.89)</t>
+  </si>
+  <si>
+    <t>1.29(1.27–1.31)</t>
+  </si>
+  <si>
+    <t>1.29(1.27–1.32)</t>
+  </si>
+  <si>
+    <t>1.37(1.35–1.39)</t>
+  </si>
+  <si>
+    <t>1.72(1.69–1.74)</t>
+  </si>
+  <si>
+    <t>0.96(0.95–0.98)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>0.55(0.54–0.56)</t>
+  </si>
+  <si>
+    <t>0.43(0.37–0.48)</t>
+  </si>
+  <si>
+    <t>0.51(0.49–0.52)</t>
+  </si>
+  <si>
+    <t>0.43(0.42–0.43)</t>
+  </si>
+  <si>
+    <t>0.24(0.23–0.24)</t>
+  </si>
+  <si>
+    <t>0.41(0.41–0.42)</t>
+  </si>
+  <si>
+    <t>0.21(0.21–0.22)</t>
+  </si>
+  <si>
+    <t>0.30(0.30–0.31)</t>
+  </si>
+  <si>
+    <t>0.19(0.19–0.19)</t>
+  </si>
+  <si>
+    <t>0.47(0.46–0.48)</t>
+  </si>
+  <si>
+    <t>0.38(0.37–0.39)</t>
+  </si>
+  <si>
+    <t>0.60(0.59–0.61)</t>
+  </si>
+  <si>
+    <t>0.61(0.60–0.61)</t>
+  </si>
+  <si>
+    <t>0.53(0.52–0.54)</t>
+  </si>
+  <si>
+    <t>0.49(0.48–0.50)</t>
+  </si>
+  <si>
+    <t>0.51(0.50–0.52)</t>
+  </si>
+  <si>
+    <t>0.46(0.46–0.47)</t>
+  </si>
+  <si>
+    <t>0.37(0.36–0.38)</t>
+  </si>
+  <si>
+    <t>0.19(0.18–0.19)</t>
+  </si>
+  <si>
+    <t>0.50(0.49–0.51)</t>
+  </si>
+  <si>
+    <t>0.42(0.41–0.43)</t>
+  </si>
+  <si>
+    <t>0.56(0.55–0.57)</t>
+  </si>
+  <si>
+    <t>0.55(0.54–0.56)</t>
+  </si>
+  <si>
+    <t>0.64(0.63–0.65)</t>
+  </si>
+  <si>
+    <t>0.80(0.79–0.82)</t>
+  </si>
+  <si>
+    <t>0.44(0.44–0.45)</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>3.63(3.57–3.69)</t>
+  </si>
+  <si>
+    <t>2.88(2.57–3.18)</t>
+  </si>
+  <si>
+    <t>2.87(2.80–2.94)</t>
+  </si>
+  <si>
+    <t>2.81(2.77–2.86)</t>
+  </si>
+  <si>
+    <t>1.50(1.48–1.52)</t>
+  </si>
+  <si>
+    <t>2.65(2.62–2.69)</t>
+  </si>
+  <si>
+    <t>1.33(1.32–1.35)</t>
+  </si>
+  <si>
+    <t>1.94(1.91–1.98)</t>
+  </si>
+  <si>
+    <t>1.18(1.17–1.20)</t>
+  </si>
+  <si>
+    <t>3.13(3.07–3.19)</t>
+  </si>
+  <si>
+    <t>2.49(2.43–2.56)</t>
+  </si>
+  <si>
+    <t>3.88(3.83–3.94)</t>
+  </si>
+  <si>
+    <t>3.88(3.83–3.93)</t>
+  </si>
+  <si>
+    <t>3.45(3.40–3.50)</t>
+  </si>
+  <si>
+    <t>3.26(3.21–3.31)</t>
+  </si>
+  <si>
+    <t>3.34(3.28–3.39)</t>
+  </si>
+  <si>
+    <t>3.07(3.03–3.12)</t>
+  </si>
+  <si>
+    <t>2.43(2.39–2.47)</t>
+  </si>
+  <si>
+    <t>1.23(1.22–1.25)</t>
+  </si>
+  <si>
+    <t>3.15(3.11–3.20)</t>
+  </si>
+  <si>
+    <t>2.56(2.52–2.60)</t>
+  </si>
+  <si>
+    <t>3.77(3.71–3.83)</t>
+  </si>
+  <si>
+    <t>3.79(3.72–3.87)</t>
+  </si>
+  <si>
+    <t>4.01(3.95–4.07)</t>
+  </si>
+  <si>
+    <t>5.02(4.94–5.09)</t>
+  </si>
+  <si>
+    <t>2.81(2.77–2.86)</t>
   </si>
   <si>
     <t>Time_Dose_SA</t>
@@ -519,45 +969,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="G2" s="0">
         <v>150</v>
@@ -565,22 +1015,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="G3" s="0">
         <v>150</v>
@@ -588,22 +1038,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="G4" s="0">
         <v>90</v>
@@ -611,22 +1061,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="G5" s="0">
         <v>120</v>
@@ -634,22 +1084,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="G6" s="0">
         <v>120</v>
@@ -657,45 +1107,45 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="G7" s="0">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="G8" s="0">
         <v>120</v>
@@ -703,68 +1153,68 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="G9" s="0">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="G10" s="0">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="G11" s="0">
         <v>150</v>
@@ -772,22 +1222,22 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="G12" s="0">
         <v>150</v>
@@ -795,22 +1245,22 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="G13" s="0">
         <v>150</v>
@@ -818,22 +1268,22 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="G14" s="0">
         <v>150</v>
@@ -841,22 +1291,22 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="G15" s="0">
         <v>150</v>
@@ -864,45 +1314,45 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="G16" s="0">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="G17" s="0">
         <v>150</v>
@@ -910,22 +1360,22 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="G18" s="0">
         <v>120</v>
@@ -933,22 +1383,22 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="G19" s="0">
         <v>150</v>
@@ -956,22 +1406,22 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="G20" s="0">
         <v>150</v>
@@ -979,22 +1429,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="G21" s="0">
         <v>150</v>
@@ -1002,22 +1452,22 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="G22" s="0">
         <v>120</v>
@@ -1025,22 +1475,22 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="G23" s="0">
         <v>150</v>
@@ -1048,22 +1498,22 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="G24" s="0">
         <v>150</v>
@@ -1071,68 +1521,68 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="G25" s="0">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="G26" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="G27" s="0">
         <v>150</v>

--- a/ODE/Figures/Supplemental_Table_3.xlsx
+++ b/ODE/Figures/Supplemental_Table_3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB2808-8929-4509-BBDF-B4A09BB5C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,457 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="300">
+  <si>
+    <t>Main_Scenario</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Peak burden of hospitalization</t>
+  </si>
+  <si>
+    <t>Reduced vaccination rate</t>
+  </si>
+  <si>
+    <t>Reduced vaccination uptake</t>
+  </si>
+  <si>
+    <t>Reduced uptake of second dose</t>
+  </si>
+  <si>
+    <t>Reduced transmission rate</t>
+  </si>
+  <si>
+    <t>Increased transmission rate</t>
+  </si>
+  <si>
+    <t>Duration of delay (41%% a delay second dose)</t>
+  </si>
+  <si>
+    <t>Duration of delay (64%% a delay second dose)</t>
+  </si>
+  <si>
+    <t>Reduced probability of hospitalization</t>
+  </si>
+  <si>
+    <t>Reduced efficacy against infection</t>
+  </si>
+  <si>
+    <t>Increased efficacy against severe disease and infection</t>
+  </si>
+  <si>
+    <t>Waning vaccine immunity</t>
+  </si>
+  <si>
+    <t>Sub_Scenario</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Single Winter</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>5%%</t>
+  </si>
+  <si>
+    <t>10%%</t>
+  </si>
+  <si>
+    <t>5%%</t>
+  </si>
+  <si>
+    <t>10%%</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>28 days</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>33%%</t>
+  </si>
+  <si>
+    <t>66%%</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>18-59</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>11.24(11.05–11.42)</t>
+  </si>
+  <si>
+    <t>8.94(8.24–9.65)</t>
+  </si>
+  <si>
+    <t>6.05(5.93–6.17)</t>
+  </si>
+  <si>
+    <t>8.93(8.80–9.07)</t>
+  </si>
+  <si>
+    <t>4.42(4.35–4.49)</t>
+  </si>
+  <si>
+    <t>8.03(7.92–8.15)</t>
+  </si>
+  <si>
+    <t>3.70(3.64–3.75)</t>
+  </si>
+  <si>
+    <t>5.73(5.63–5.83)</t>
+  </si>
+  <si>
+    <t>3.20(3.14–3.25)</t>
+  </si>
+  <si>
+    <t>9.78(9.59–9.95)</t>
+  </si>
+  <si>
+    <t>7.77(7.60–7.95)</t>
+  </si>
+  <si>
+    <t>11.82(11.65–11.99)</t>
+  </si>
+  <si>
+    <t>11.56(11.38–11.74)</t>
+  </si>
+  <si>
+    <t>10.57(10.40–10.74)</t>
+  </si>
+  <si>
+    <t>10.58(10.42–10.75)</t>
+  </si>
+  <si>
+    <t>10.17(10.01–10.34)</t>
+  </si>
+  <si>
+    <t>9.89(9.73–10.05)</t>
+  </si>
+  <si>
+    <t>11.24(11.06–11.41)</t>
+  </si>
+  <si>
+    <t>11.23(11.06–11.41)</t>
+  </si>
+  <si>
+    <t>8.42(8.28–8.56)</t>
+  </si>
+  <si>
+    <t>5.64(5.53–5.75)</t>
+  </si>
+  <si>
+    <t>12.47(12.27–12.66)</t>
+  </si>
+  <si>
+    <t>13.08(12.86–13.29)</t>
+  </si>
+  <si>
+    <t>11.22(11.05–11.40)</t>
+  </si>
+  <si>
+    <t>13.51(13.30–13.73)</t>
+  </si>
+  <si>
+    <t>8.37(8.24–8.51)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>1.24(1.22–1.26)</t>
+  </si>
+  <si>
+    <t>0.98(0.87–1.09)</t>
+  </si>
+  <si>
+    <t>0.99(0.96–1.01)</t>
+  </si>
+  <si>
+    <t>0.96(0.95–0.98)</t>
+  </si>
+  <si>
+    <t>0.51(0.51–0.52)</t>
+  </si>
+  <si>
+    <t>0.91(0.90–0.92)</t>
+  </si>
+  <si>
+    <t>0.46(0.45–0.46)</t>
+  </si>
+  <si>
+    <t>0.66(0.65–0.67)</t>
+  </si>
+  <si>
+    <t>0.40(0.40–0.41)</t>
+  </si>
+  <si>
+    <t>1.07(1.05–1.09)</t>
+  </si>
+  <si>
+    <t>0.85(0.83–0.87)</t>
+  </si>
+  <si>
+    <t>1.33(1.31–1.35)</t>
+  </si>
+  <si>
+    <t>1.33(1.31–1.34)</t>
+  </si>
+  <si>
+    <t>1.18(1.16–1.20)</t>
+  </si>
+  <si>
+    <t>1.11(1.10–1.13)</t>
+  </si>
+  <si>
+    <t>1.14(1.12–1.16)</t>
+  </si>
+  <si>
+    <t>1.05(1.03–1.07)</t>
+  </si>
+  <si>
+    <t>0.83(0.82–0.84)</t>
+  </si>
+  <si>
+    <t>0.42(0.41–0.43)</t>
+  </si>
+  <si>
+    <t>1.08(1.06–1.09)</t>
+  </si>
+  <si>
+    <t>0.88(0.86–0.89)</t>
+  </si>
+  <si>
+    <t>1.29(1.27–1.31)</t>
+  </si>
+  <si>
+    <t>1.29(1.27–1.32)</t>
+  </si>
+  <si>
+    <t>1.37(1.35–1.39)</t>
+  </si>
+  <si>
+    <t>1.72(1.69–1.74)</t>
+  </si>
+  <si>
+    <t>0.96(0.95–0.98)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>0.55(0.54–0.56)</t>
+  </si>
+  <si>
+    <t>0.43(0.37–0.48)</t>
+  </si>
+  <si>
+    <t>0.51(0.49–0.52)</t>
+  </si>
+  <si>
+    <t>0.43(0.42–0.43)</t>
+  </si>
+  <si>
+    <t>0.24(0.23–0.24)</t>
+  </si>
+  <si>
+    <t>0.41(0.41–0.42)</t>
+  </si>
+  <si>
+    <t>0.21(0.21–0.22)</t>
+  </si>
+  <si>
+    <t>0.30(0.30–0.31)</t>
+  </si>
+  <si>
+    <t>0.19(0.19–0.19)</t>
+  </si>
+  <si>
+    <t>0.47(0.46–0.48)</t>
+  </si>
+  <si>
+    <t>0.38(0.37–0.39)</t>
+  </si>
+  <si>
+    <t>0.60(0.59–0.61)</t>
+  </si>
+  <si>
+    <t>0.61(0.60–0.61)</t>
+  </si>
+  <si>
+    <t>0.53(0.52–0.54)</t>
+  </si>
+  <si>
+    <t>0.49(0.48–0.50)</t>
+  </si>
+  <si>
+    <t>0.51(0.50–0.52)</t>
+  </si>
+  <si>
+    <t>0.46(0.46–0.47)</t>
+  </si>
+  <si>
+    <t>0.37(0.36–0.38)</t>
+  </si>
+  <si>
+    <t>0.19(0.18–0.19)</t>
+  </si>
+  <si>
+    <t>0.50(0.49–0.51)</t>
+  </si>
+  <si>
+    <t>0.42(0.41–0.43)</t>
+  </si>
+  <si>
+    <t>0.56(0.55–0.57)</t>
+  </si>
+  <si>
+    <t>0.55(0.54–0.56)</t>
+  </si>
+  <si>
+    <t>0.64(0.63–0.65)</t>
+  </si>
+  <si>
+    <t>0.80(0.79–0.82)</t>
+  </si>
+  <si>
+    <t>0.44(0.44–0.45)</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>3.63(3.57–3.69)</t>
+  </si>
+  <si>
+    <t>2.88(2.57–3.18)</t>
+  </si>
+  <si>
+    <t>2.87(2.80–2.94)</t>
+  </si>
+  <si>
+    <t>2.81(2.77–2.86)</t>
+  </si>
+  <si>
+    <t>1.50(1.48–1.52)</t>
+  </si>
+  <si>
+    <t>2.65(2.62–2.69)</t>
+  </si>
+  <si>
+    <t>1.33(1.32–1.35)</t>
+  </si>
+  <si>
+    <t>1.94(1.91–1.98)</t>
+  </si>
+  <si>
+    <t>1.18(1.17–1.20)</t>
+  </si>
+  <si>
+    <t>3.13(3.07–3.19)</t>
+  </si>
+  <si>
+    <t>2.49(2.43–2.56)</t>
+  </si>
+  <si>
+    <t>3.88(3.83–3.94)</t>
+  </si>
+  <si>
+    <t>3.88(3.83–3.93)</t>
+  </si>
+  <si>
+    <t>3.45(3.40–3.50)</t>
+  </si>
+  <si>
+    <t>3.26(3.21–3.31)</t>
+  </si>
+  <si>
+    <t>3.34(3.28–3.39)</t>
+  </si>
+  <si>
+    <t>3.07(3.03–3.12)</t>
+  </si>
+  <si>
+    <t>2.43(2.39–2.47)</t>
+  </si>
+  <si>
+    <t>1.23(1.22–1.25)</t>
+  </si>
+  <si>
+    <t>3.15(3.11–3.20)</t>
+  </si>
+  <si>
+    <t>2.56(2.52–2.60)</t>
+  </si>
+  <si>
+    <t>3.77(3.71–3.83)</t>
+  </si>
+  <si>
+    <t>3.79(3.72–3.87)</t>
+  </si>
+  <si>
+    <t>4.01(3.95–4.07)</t>
+  </si>
+  <si>
+    <t>5.02(4.94–5.09)</t>
+  </si>
+  <si>
+    <t>2.81(2.77–2.86)</t>
+  </si>
+  <si>
+    <t>Time_Dose_SA</t>
+  </si>
   <si>
     <t>Main_Scenario</t>
   </si>
@@ -503,7 +953,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -511,12 +961,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,637 +1285,639 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.140625" customWidth="true"/>
+    <col min="3" max="3" width="17.28515625" customWidth="true"/>
+    <col min="4" max="4" width="15.28515625" customWidth="true"/>
+    <col min="5" max="5" width="14.28515625" customWidth="true"/>
+    <col min="6" max="6" width="14.28515625" customWidth="true"/>
+    <col min="7" max="7" width="14.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3">
+      <c r="B1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8">
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9">
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="0">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10">
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="0">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11">
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12">
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13">
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14">
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15">
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16">
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17">
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18">
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19">
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20">
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21">
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22">
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23">
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24">
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25">
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26">
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="0">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27">
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="0">
         <v>150</v>
       </c>
     </row>
